--- a/input/GrowerPortal.xlsx
+++ b/input/GrowerPortal.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\eclipse-workspace\GrowerPortal\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B06B32-99F2-4DCD-B622-935CBFCFDE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F9890B-B693-4BA2-A110-92B2B370A7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{FF234655-D598-4AE8-8306-A46F6C3E0F22}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{FF234655-D598-4AE8-8306-A46F6C3E0F22}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="1" r:id="rId1"/>
     <sheet name="forgetPassword" sheetId="2" r:id="rId2"/>
     <sheet name="createAccount" sheetId="3" r:id="rId3"/>
     <sheet name="stepsToFollow" sheetId="4" r:id="rId4"/>
-    <sheet name="dashboard" sheetId="5" r:id="rId5"/>
-    <sheet name="addApplication" sheetId="6" r:id="rId6"/>
-    <sheet name="about" sheetId="7" r:id="rId7"/>
-    <sheet name="contactUs" sheetId="8" r:id="rId8"/>
-    <sheet name="report" sheetId="9" r:id="rId9"/>
-    <sheet name="userInformation" sheetId="10" r:id="rId10"/>
-    <sheet name="sensorData" sheetId="11" r:id="rId11"/>
+    <sheet name="UploadPhoto" sheetId="12" r:id="rId5"/>
+    <sheet name="dashboard" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId7"/>
+    <sheet name="addApplication" sheetId="6" r:id="rId8"/>
+    <sheet name="about" sheetId="7" r:id="rId9"/>
+    <sheet name="contactUs" sheetId="8" r:id="rId10"/>
+    <sheet name="report" sheetId="9" r:id="rId11"/>
+    <sheet name="userInformation" sheetId="10" r:id="rId12"/>
+    <sheet name="sensorData" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>UserName</t>
   </si>
@@ -122,6 +124,18 @@
   </si>
   <si>
     <t>Steps to Follow</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Add Application</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>C:\Users\student\Downloads\IMG4.jpg</t>
   </si>
 </sst>
 </file>
@@ -522,6 +536,36 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B42994F-66BC-4FBE-88FE-C94E9F39418E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD92321-F882-43C8-9A06-E3EBC6296F24}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE5F33B-F2AF-4788-A261-FFCBE5970D85}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -533,7 +577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1635791A-FF89-42E2-B3B1-2F17D450BF1F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -658,10 +702,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09095ADD-B643-40D5-A9BA-00F6CC544227}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,7 +720,7 @@
     <col min="8" max="8" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -701,8 +745,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H2" t="s">
         <v>25</v>
       </c>
@@ -714,52 +761,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B43E14-7BED-4064-B5DF-456D47E537AD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5061BFD8-E966-4685-89C9-ECBF5793A895}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4193AB3C-DF1D-4071-8732-6C1E84F5BD28}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B42994F-66BC-4FBE-88FE-C94E9F39418E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6A529A-12C7-4A88-AA6D-E79B6EE9D82F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -767,8 +788,68 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B43E14-7BED-4064-B5DF-456D47E537AD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF55A2E-3904-49AF-AACE-448C6D91BACB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5061BFD8-E966-4685-89C9-ECBF5793A895}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD92321-F882-43C8-9A06-E3EBC6296F24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4193AB3C-DF1D-4071-8732-6C1E84F5BD28}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/input/GrowerPortal.xlsx
+++ b/input/GrowerPortal.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\eclipse-workspace\GrowerPortal\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\testing\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F9890B-B693-4BA2-A110-92B2B370A7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B7E9D2-284E-4417-929D-950635663F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{FF234655-D598-4AE8-8306-A46F6C3E0F22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="11" xr2:uid="{FF234655-D598-4AE8-8306-A46F6C3E0F22}"/>
   </bookViews>
   <sheets>
     <sheet name="loginPage" sheetId="1" r:id="rId1"/>
     <sheet name="forgetPassword" sheetId="2" r:id="rId2"/>
     <sheet name="createAccount" sheetId="3" r:id="rId3"/>
-    <sheet name="stepsToFollow" sheetId="4" r:id="rId4"/>
+    <sheet name="AddApplication" sheetId="4" r:id="rId4"/>
     <sheet name="UploadPhoto" sheetId="12" r:id="rId5"/>
     <sheet name="dashboard" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId7"/>
-    <sheet name="addApplication" sheetId="6" r:id="rId8"/>
-    <sheet name="about" sheetId="7" r:id="rId9"/>
-    <sheet name="contactUs" sheetId="8" r:id="rId10"/>
-    <sheet name="report" sheetId="9" r:id="rId11"/>
-    <sheet name="userInformation" sheetId="10" r:id="rId12"/>
-    <sheet name="sensorData" sheetId="11" r:id="rId13"/>
+    <sheet name="about" sheetId="14" r:id="rId7"/>
+    <sheet name="ContactUs" sheetId="15" r:id="rId8"/>
+    <sheet name="report" sheetId="9" r:id="rId9"/>
+    <sheet name="sensorData" sheetId="11" r:id="rId10"/>
+    <sheet name="stepsToFollow" sheetId="16" r:id="rId11"/>
+    <sheet name="UserInformation" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="149">
   <si>
     <t>UserName</t>
   </si>
@@ -57,36 +56,12 @@
     <t>Pravalika</t>
   </si>
   <si>
-    <t>contactUs</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
     <t>pravalikakatta957@gmail.com</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Enter Email</t>
-  </si>
-  <si>
-    <t>Create Password</t>
-  </si>
-  <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -99,50 +74,431 @@
     <t>Baton Rouge</t>
   </si>
   <si>
-    <t>Producer Name</t>
-  </si>
-  <si>
-    <t>Producer Entity Name</t>
-  </si>
-  <si>
-    <t>County of Residence</t>
-  </si>
-  <si>
-    <t>Producer Address</t>
-  </si>
-  <si>
-    <t>Baseline Yield</t>
-  </si>
-  <si>
-    <t>Primary Reason for Applying</t>
-  </si>
-  <si>
-    <t>Primary Operator Implemented in the last 10 years</t>
-  </si>
-  <si>
     <t>menuOption</t>
   </si>
   <si>
-    <t>Steps to Follow</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
-    <t>Add Application</t>
-  </si>
-  <si>
     <t>Path</t>
   </si>
   <si>
     <t>C:\Users\student\Downloads\IMG4.jpg</t>
+  </si>
+  <si>
+    <t>applicationName</t>
+  </si>
+  <si>
+    <t>pravalika:willApply;Katta:applied</t>
+  </si>
+  <si>
+    <t>ProducerName</t>
+  </si>
+  <si>
+    <t>VenkatReddy</t>
+  </si>
+  <si>
+    <t>ProducerEntityName</t>
+  </si>
+  <si>
+    <t>CountyofResidence</t>
+  </si>
+  <si>
+    <t>Lousiana</t>
+  </si>
+  <si>
+    <t>ProducerAddress</t>
+  </si>
+  <si>
+    <t>Greenwell Springs Road</t>
+  </si>
+  <si>
+    <t>BaselineYield</t>
+  </si>
+  <si>
+    <t>UnderservedStatus</t>
+  </si>
+  <si>
+    <t>Single Producer</t>
+  </si>
+  <si>
+    <t>Yes, undeserved</t>
+  </si>
+  <si>
+    <t>Financial Benfit</t>
+  </si>
+  <si>
+    <t>PrimaryReasonforApplying</t>
+  </si>
+  <si>
+    <t>PrimaryOperatorImplementedinthelast10years</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>FarmID</t>
+  </si>
+  <si>
+    <t>TractID</t>
+  </si>
+  <si>
+    <t>FieldID</t>
+  </si>
+  <si>
+    <t>Acres</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>Red Sand</t>
+  </si>
+  <si>
+    <t>FieldLandUseHistory</t>
+  </si>
+  <si>
+    <t>FieldIrrigationHistory</t>
+  </si>
+  <si>
+    <t>Conventional, vertical</t>
+  </si>
+  <si>
+    <t>FieldTillageHistory</t>
+  </si>
+  <si>
+    <t>FieldCSAFPracticeHistory</t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t>PastCSAFPracticeHistory</t>
+  </si>
+  <si>
+    <t>ApplicationAcres</t>
+  </si>
+  <si>
+    <t>TotalLandArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> livestockInformation</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>LivestockType1</t>
+  </si>
+  <si>
+    <t>LivestockHead1</t>
+  </si>
+  <si>
+    <t>LivestockHead2</t>
+  </si>
+  <si>
+    <t>LivestockType2</t>
+  </si>
+  <si>
+    <t>Beef Cows</t>
+  </si>
+  <si>
+    <t>Ducks</t>
+  </si>
+  <si>
+    <t>LivestockType3</t>
+  </si>
+  <si>
+    <t>LivestockHead3</t>
+  </si>
+  <si>
+    <t>Chickens (broilers)</t>
+  </si>
+  <si>
+    <t>TotalForestArea</t>
+  </si>
+  <si>
+    <t>FSAPhysicalLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PastCSAFPractice	</t>
+  </si>
+  <si>
+    <t>UploadDocument</t>
+  </si>
+  <si>
+    <t>Never Used</t>
+  </si>
+  <si>
+    <t>C:\Users\Pavan\OneDrive\Documents</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>EnterEmail</t>
+  </si>
+  <si>
+    <t>CreatePassword</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>About Grower Portal</t>
+  </si>
+  <si>
+    <t>Empowering Growers Through Precision Agriculture</t>
+  </si>
+  <si>
+    <t>At Grower Portal, we are committed to revolutionizing the agricultural landscape by integrating cutting-edge technology into everyday farming practices. Our platform is designed to provide farmers with real-time water sensor data, enabling precise irrigation management that conserves resources and enhances crop yields.</t>
+  </si>
+  <si>
+    <t>Innovative Water Sensing Technology</t>
+  </si>
+  <si>
+    <t>Our advanced water sensors are the heart of Grower Portal. They provide vital data on soil moisture levels, ensuring that crops receive the right amount of water at the right time. This not only leads to better crop health and increased production but also significantly reduces water waste.</t>
+  </si>
+  <si>
+    <t>Geolocation and CLU Data Integration</t>
+  </si>
+  <si>
+    <t>Grower Portal takes precision a step further by extracting geolocation data from captured images. This information is matched with Common Land Unit (CLU) data to give farmers insight into the soil levels and conditions of their fields. With this knowledge, they can tailor their cultivation strategies to the unique needs of their land.</t>
+  </si>
+  <si>
+    <t>Our Vision</t>
+  </si>
+  <si>
+    <t>Our vision is to create a sustainable future where technology and traditional farming techniques merge seamlessly. We strive to provide tools that support growers in making informed decisions that benefit their crops, their community, and the planet.</t>
+  </si>
+  <si>
+    <t>Join Us</t>
+  </si>
+  <si>
+    <t>Join the growing number of farmers who are leveraging Grower Portal to bring about a new era in agriculture. Sign up today to start optimizing your water usage, understanding your soil better, and taking your farming operations to the next level.</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>We aim to respond within 24 hours. Feel free to reach out to us with any inquiries, and we'll get back to you as soon as possible.</t>
+  </si>
+  <si>
+    <t>AboutPage</t>
+  </si>
+  <si>
+    <t>Phone number: Your Phone Number</t>
+  </si>
+  <si>
+    <t>Email: Your Email Address</t>
+  </si>
+  <si>
+    <t>Chat Us: Start Chat</t>
+  </si>
+  <si>
+    <t>contactUsText</t>
+  </si>
+  <si>
+    <t>Sensor Data</t>
+  </si>
+  <si>
+    <t>Sensor Data Metrics:</t>
+  </si>
+  <si>
+    <t>How to Fill Out Your Application - Grower Portal</t>
+  </si>
+  <si>
+    <t>Access the Application Form: Navigate to the "Add Application" section on the Grower Portal.</t>
+  </si>
+  <si>
+    <t>Enter Basic Information: Fill in basic details such as your Farm Number and Tract Number.</t>
+  </si>
+  <si>
+    <t>Provide Detailed Information: Enter specific details about your farm, including Commodity Type, Grower Field Name, and FSA Physical Location.</t>
+  </si>
+  <si>
+    <t>Upload Necessary Documents: Attach any required documents, such as proof of ownership or land use documentation, in the Document Upload section.</t>
+  </si>
+  <si>
+    <t>Review Your Application: Ensure all the information provided is accurate and complete.</t>
+  </si>
+  <si>
+    <t>Submit Your Application: Click the "Submit Application" button. You will receive a confirmation once your application has been successfully submitted.</t>
+  </si>
+  <si>
+    <t>Await Confirmation: After submission, your application will be reviewed, and you will be notified about the approval status via email or on the portal.</t>
+  </si>
+  <si>
+    <t>empoweringGrowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> empoweringGrowersMatter</t>
+  </si>
+  <si>
+    <t>InnovativeWater</t>
+  </si>
+  <si>
+    <t>InnovativeWaterDescription</t>
+  </si>
+  <si>
+    <t>Geolocation</t>
+  </si>
+  <si>
+    <t>GeolocationDescription</t>
+  </si>
+  <si>
+    <t>OurVision</t>
+  </si>
+  <si>
+    <t>OurVisionDescription</t>
+  </si>
+  <si>
+    <t>JoinUs</t>
+  </si>
+  <si>
+    <t>JoinUsDescription</t>
+  </si>
+  <si>
+    <t>EmailText</t>
+  </si>
+  <si>
+    <t>ChatUS</t>
+  </si>
+  <si>
+    <t>SelectDay</t>
+  </si>
+  <si>
+    <t>SelectMonth</t>
+  </si>
+  <si>
+    <t>SelectYear</t>
+  </si>
+  <si>
+    <t>GenerateYearlyReport</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Sensor Data Dashboard</t>
+  </si>
+  <si>
+    <t>sensorDataHeading</t>
+  </si>
+  <si>
+    <t>SensorData</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>DataMetrics</t>
+  </si>
+  <si>
+    <t>Location:</t>
+  </si>
+  <si>
+    <t>Field XYZ</t>
+  </si>
+  <si>
+    <t>UniqueId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique ID: </t>
+  </si>
+  <si>
+    <t>ABC123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth: </t>
+  </si>
+  <si>
+    <t>10 inches</t>
+  </si>
+  <si>
+    <t>HowToFillApplication</t>
+  </si>
+  <si>
+    <t>AccessApplicationForm</t>
+  </si>
+  <si>
+    <t>BasicInformation</t>
+  </si>
+  <si>
+    <t>ProvideInformation</t>
+  </si>
+  <si>
+    <t>UploadDocuments</t>
+  </si>
+  <si>
+    <t>ReviewApplication</t>
+  </si>
+  <si>
+    <t>SubmitApplication</t>
+  </si>
+  <si>
+    <t>AwaitConfirmation</t>
+  </si>
+  <si>
+    <t>UserInfo</t>
+  </si>
+  <si>
+    <t>User Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: </t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: </t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address: </t>
+  </si>
+  <si>
+    <t>123 Main Street, City, Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Birth: </t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PhnNumber</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +513,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,13 +542,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -508,13 +907,13 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -536,16 +935,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B42994F-66BC-4FBE-88FE-C94E9F39418E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1635791A-FF89-42E2-B3B1-2F17D450BF1F}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -554,39 +1005,155 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD92321-F882-43C8-9A06-E3EBC6296F24}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A11F753-7865-4548-8319-14079F023AED}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE5F33B-F2AF-4788-A261-FFCBE5970D85}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E852EAE-1A95-4083-A7AA-DDF445F3E15A}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1635791A-FF89-42E2-B3B1-2F17D450BF1F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="16">
+        <v>32874</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{44539752-50F9-4955-AC35-7A936A86D410}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -599,16 +1166,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -625,70 +1192,70 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>31048</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>12254107188</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -702,56 +1269,229 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09095ADD-B643-40D5-A9BA-00F6CC544227}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="24.7265625" customWidth="1"/>
-    <col min="7" max="7" width="42.81640625" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="42.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="16" width="26.7109375" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" customWidth="1"/>
+    <col min="18" max="18" width="24.28515625" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" customWidth="1"/>
+    <col min="21" max="21" width="20.42578125" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" customWidth="1"/>
+    <col min="25" max="25" width="16.28515625" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" customWidth="1"/>
+    <col min="29" max="29" width="22" customWidth="1"/>
+    <col min="30" max="30" width="20.42578125" customWidth="1"/>
+    <col min="31" max="31" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
       </c>
       <c r="D1" t="s">
         <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>11231</v>
+      </c>
+      <c r="J2">
+        <v>12345</v>
+      </c>
+      <c r="K2">
+        <v>45321</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+      <c r="T2">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2">
+        <v>5</v>
+      </c>
+      <c r="AB2">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -764,23 +1504,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6A529A-12C7-4A88-AA6D-E79B6EE9D82F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.08984375" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -790,20 +1528,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B43E14-7BED-4064-B5DF-456D47E537AD}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -812,35 +1562,150 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF55A2E-3904-49AF-AACE-448C6D91BACB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6CD3A6-8A40-40EE-B91C-B0130B802F3D}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="47.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="44.28515625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5061BFD8-E966-4685-89C9-ECBF5793A895}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F6BF23-D30D-4EC8-9838-43A42DBC3C18}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>27</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -849,13 +1714,50 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4193AB3C-DF1D-4071-8732-6C1E84F5BD28}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD92321-F882-43C8-9A06-E3EBC6296F24}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>2024</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input/GrowerPortal.xlsx
+++ b/input/GrowerPortal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\testing\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15bc9c2bc0134084/Documents/project/testing/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF8D4E-F2A0-4D45-A25A-2FC43E1EDB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B8FF8D4E-F2A0-4D45-A25A-2FC43E1EDB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE951116-EE5D-4686-AC5C-B6A529DEB7F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{FF234655-D598-4AE8-8306-A46F6C3E0F22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{FF234655-D598-4AE8-8306-A46F6C3E0F22}"/>
   </bookViews>
   <sheets>
     <sheet name="forgetPassword" sheetId="2" r:id="rId1"/>
@@ -30,21 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="156">
   <si>
     <t>Pravalika</t>
   </si>
@@ -518,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,13 +531,27 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -577,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,22 +597,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -618,20 +611,31 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -652,9 +656,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -692,7 +696,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -798,7 +802,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -940,7 +944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -954,14 +958,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -983,20 +987,20 @@
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1"/>
-    <col min="8" max="8" width="40.5703125" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" customWidth="1"/>
+    <col min="8" max="8" width="40.5546875" customWidth="1"/>
+    <col min="9" max="9" width="38.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1025,33 +1029,33 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1066,17 +1070,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>134</v>
       </c>
@@ -1119,17 +1123,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>32874</v>
       </c>
     </row>
@@ -1149,18 +1153,18 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1227,46 +1231,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="42.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="42.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" customWidth="1"/>
-    <col min="24" max="24" width="24.28515625" customWidth="1"/>
-    <col min="25" max="25" width="27.7109375" customWidth="1"/>
-    <col min="26" max="27" width="21.5703125" customWidth="1"/>
-    <col min="28" max="28" width="20.42578125" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" customWidth="1"/>
-    <col min="30" max="30" width="16.28515625" customWidth="1"/>
-    <col min="31" max="31" width="17.140625" customWidth="1"/>
-    <col min="32" max="32" width="16.28515625" customWidth="1"/>
-    <col min="33" max="33" width="18.7109375" customWidth="1"/>
-    <col min="34" max="34" width="17.140625" customWidth="1"/>
-    <col min="35" max="35" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" customWidth="1"/>
+    <col min="23" max="23" width="23.88671875" customWidth="1"/>
+    <col min="24" max="24" width="24.33203125" customWidth="1"/>
+    <col min="25" max="25" width="27.6640625" customWidth="1"/>
+    <col min="26" max="27" width="21.5546875" customWidth="1"/>
+    <col min="28" max="28" width="20.44140625" customWidth="1"/>
+    <col min="29" max="29" width="18.6640625" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" customWidth="1"/>
+    <col min="31" max="31" width="17.109375" customWidth="1"/>
+    <col min="32" max="32" width="16.33203125" customWidth="1"/>
+    <col min="33" max="33" width="18.6640625" customWidth="1"/>
+    <col min="34" max="34" width="17.109375" customWidth="1"/>
+    <col min="35" max="35" width="19.6640625" customWidth="1"/>
     <col min="36" max="36" width="22" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="29.85546875" customWidth="1"/>
+    <col min="37" max="37" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -1494,13 +1498,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -1524,13 +1528,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1555,100 +1559,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6CD3A6-8A40-40EE-B91C-B0130B802F3D}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="32" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="47.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="42.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="44.28515625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="3" max="3" width="20.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="42.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="5"/>
+    <col min="12" max="12" width="44.33203125" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="15" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1661,58 +1665,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F6BF23-D30D-4EC8-9838-43A42DBC3C18}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="12" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1724,16 +1732,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1758,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>19</v>
       </c>
@@ -1777,16 +1785,16 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1817,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>112</v>
       </c>
@@ -1829,7 +1837,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>119</v>
       </c>

--- a/input/GrowerPortal.xlsx
+++ b/input/GrowerPortal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15bc9c2bc0134084/Documents/project/testing/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{B8FF8D4E-F2A0-4D45-A25A-2FC43E1EDB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE951116-EE5D-4686-AC5C-B6A529DEB7F2}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B8FF8D4E-F2A0-4D45-A25A-2FC43E1EDB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE1F30DF-9689-4ED1-8A15-515B5DA4D0E5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{FF234655-D598-4AE8-8306-A46F6C3E0F22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{FF234655-D598-4AE8-8306-A46F6C3E0F22}"/>
   </bookViews>
   <sheets>
     <sheet name="forgetPassword" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="157">
   <si>
     <t>Pravalika</t>
   </si>
@@ -67,15 +67,9 @@
     <t>Path</t>
   </si>
   <si>
-    <t>C:\Users\student\Downloads\IMG4.jpg</t>
-  </si>
-  <si>
     <t>applicationName</t>
   </si>
   <si>
-    <t>pravalika:willApply;Katta:applied</t>
-  </si>
-  <si>
     <t>ProducerName</t>
   </si>
   <si>
@@ -503,6 +497,15 @@
   </si>
   <si>
     <t>Add Application</t>
+  </si>
+  <si>
+    <t>pravalika:In Progress;Katta:applied</t>
+  </si>
+  <si>
+    <t>Upload Photo</t>
+  </si>
+  <si>
+    <t>C:\Users\suvar\OneDrive\Documents\project\testing\upload\th.jpg</t>
   </si>
 </sst>
 </file>
@@ -653,6 +656,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1005,54 +1012,54 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1085,53 +1092,53 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" t="s">
-        <v>139</v>
-      </c>
       <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
         <v>140</v>
-      </c>
-      <c r="G2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G3" s="11">
         <v>32874</v>
@@ -1166,25 +1173,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" t="s">
-        <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -1275,147 +1282,147 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="AM1" t="s">
         <v>151</v>
-      </c>
-      <c r="R1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S1" t="s">
-        <v>150</v>
-      </c>
-      <c r="T1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2">
         <v>11231</v>
@@ -1430,19 +1437,19 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Y2">
         <v>10</v>
@@ -1451,22 +1458,22 @@
         <v>12</v>
       </c>
       <c r="AB2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AD2">
         <v>3</v>
       </c>
       <c r="AE2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF2">
         <v>4</v>
       </c>
       <c r="AG2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AH2">
         <v>5</v>
@@ -1478,10 +1485,10 @@
         <v>6</v>
       </c>
       <c r="AK2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AL2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1494,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6A529A-12C7-4A88-AA6D-E79B6EE9D82F}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1513,8 +1520,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1536,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B43E14-7BED-4064-B5DF-456D47E537AD}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1539,7 +1551,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1547,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1585,75 +1597,75 @@
         <v>7</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="G2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="I2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1665,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F6BF23-D30D-4EC8-9838-43A42DBC3C18}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
@@ -1683,39 +1695,39 @@
         <v>7</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1746,16 +1758,16 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1763,7 +1775,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D2">
         <v>2023</v>
@@ -1799,53 +1811,53 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" t="s">
         <v>114</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
         <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
         <v>122</v>
-      </c>
-      <c r="G3" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/input/GrowerPortal.xlsx
+++ b/input/GrowerPortal.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\eclipse-workspace\GrowerPortal\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\testing\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F9890B-B693-4BA2-A110-92B2B370A7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF8D4E-F2A0-4D45-A25A-2FC43E1EDB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{FF234655-D598-4AE8-8306-A46F6C3E0F22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{FF234655-D598-4AE8-8306-A46F6C3E0F22}"/>
   </bookViews>
   <sheets>
-    <sheet name="loginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="forgetPassword" sheetId="2" r:id="rId2"/>
-    <sheet name="createAccount" sheetId="3" r:id="rId3"/>
-    <sheet name="stepsToFollow" sheetId="4" r:id="rId4"/>
-    <sheet name="UploadPhoto" sheetId="12" r:id="rId5"/>
-    <sheet name="dashboard" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId7"/>
-    <sheet name="addApplication" sheetId="6" r:id="rId8"/>
-    <sheet name="about" sheetId="7" r:id="rId9"/>
-    <sheet name="contactUs" sheetId="8" r:id="rId10"/>
-    <sheet name="report" sheetId="9" r:id="rId11"/>
-    <sheet name="userInformation" sheetId="10" r:id="rId12"/>
-    <sheet name="sensorData" sheetId="11" r:id="rId13"/>
+    <sheet name="forgetPassword" sheetId="2" r:id="rId1"/>
+    <sheet name="createAccount" sheetId="3" r:id="rId2"/>
+    <sheet name="AddApplication" sheetId="4" r:id="rId3"/>
+    <sheet name="UploadPhoto" sheetId="12" r:id="rId4"/>
+    <sheet name="dashboard" sheetId="5" r:id="rId5"/>
+    <sheet name="about" sheetId="14" r:id="rId6"/>
+    <sheet name="ContactUs" sheetId="15" r:id="rId7"/>
+    <sheet name="report" sheetId="9" r:id="rId8"/>
+    <sheet name="sensorData" sheetId="11" r:id="rId9"/>
+    <sheet name="stepsToFollow" sheetId="16" r:id="rId10"/>
+    <sheet name="UserInformation" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,47 +44,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
   <si>
     <t>Pravalika</t>
   </si>
   <si>
-    <t>contactUs</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
     <t>pravalikakatta957@gmail.com</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Enter Email</t>
-  </si>
-  <si>
-    <t>Create Password</t>
-  </si>
-  <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -99,50 +67,458 @@
     <t>Baton Rouge</t>
   </si>
   <si>
-    <t>Producer Name</t>
-  </si>
-  <si>
-    <t>Producer Entity Name</t>
-  </si>
-  <si>
-    <t>County of Residence</t>
-  </si>
-  <si>
-    <t>Producer Address</t>
-  </si>
-  <si>
-    <t>Baseline Yield</t>
-  </si>
-  <si>
-    <t>Primary Reason for Applying</t>
-  </si>
-  <si>
-    <t>Primary Operator Implemented in the last 10 years</t>
-  </si>
-  <si>
     <t>menuOption</t>
   </si>
   <si>
-    <t>Steps to Follow</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>C:\Users\student\Downloads\IMG4.jpg</t>
+  </si>
+  <si>
+    <t>applicationName</t>
+  </si>
+  <si>
+    <t>pravalika:willApply;Katta:applied</t>
+  </si>
+  <si>
+    <t>ProducerName</t>
+  </si>
+  <si>
+    <t>VenkatReddy</t>
+  </si>
+  <si>
+    <t>ProducerEntityName</t>
+  </si>
+  <si>
+    <t>CountyofResidence</t>
+  </si>
+  <si>
+    <t>Lousiana</t>
+  </si>
+  <si>
+    <t>ProducerAddress</t>
+  </si>
+  <si>
+    <t>Greenwell Springs Road</t>
+  </si>
+  <si>
+    <t>BaselineYield</t>
+  </si>
+  <si>
+    <t>UnderservedStatus</t>
+  </si>
+  <si>
+    <t>Single Producer</t>
+  </si>
+  <si>
+    <t>Yes, undeserved</t>
+  </si>
+  <si>
+    <t>Financial Benfit</t>
+  </si>
+  <si>
+    <t>PrimaryReasonforApplying</t>
+  </si>
+  <si>
+    <t>PrimaryOperatorImplementedinthelast10years</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>FarmID</t>
+  </si>
+  <si>
+    <t>TractID</t>
+  </si>
+  <si>
+    <t>FieldID</t>
+  </si>
+  <si>
+    <t>Acres</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>Red Sand</t>
+  </si>
+  <si>
+    <t>FieldLandUseHistory</t>
+  </si>
+  <si>
+    <t>FieldIrrigationHistory</t>
+  </si>
+  <si>
+    <t>Conventional, vertical</t>
+  </si>
+  <si>
+    <t>FieldTillageHistory</t>
+  </si>
+  <si>
+    <t>FieldCSAFPracticeHistory</t>
+  </si>
+  <si>
+    <t>I don't know</t>
+  </si>
+  <si>
+    <t>PastCSAFPracticeHistory</t>
+  </si>
+  <si>
+    <t>ApplicationAcres</t>
+  </si>
+  <si>
+    <t>TotalLandArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> livestockInformation</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>LivestockType1</t>
+  </si>
+  <si>
+    <t>LivestockHead1</t>
+  </si>
+  <si>
+    <t>LivestockHead2</t>
+  </si>
+  <si>
+    <t>LivestockType2</t>
+  </si>
+  <si>
+    <t>Beef Cows</t>
+  </si>
+  <si>
+    <t>Ducks</t>
+  </si>
+  <si>
+    <t>LivestockType3</t>
+  </si>
+  <si>
+    <t>LivestockHead3</t>
+  </si>
+  <si>
+    <t>Chickens (broilers)</t>
+  </si>
+  <si>
+    <t>TotalForestArea</t>
+  </si>
+  <si>
+    <t>FSAPhysicalLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PastCSAFPractice	</t>
+  </si>
+  <si>
+    <t>UploadDocument</t>
+  </si>
+  <si>
+    <t>Never Used</t>
+  </si>
+  <si>
+    <t>C:\Users\Pavan\OneDrive\Documents</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>EnterEmail</t>
+  </si>
+  <si>
+    <t>CreatePassword</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>About Grower Portal</t>
+  </si>
+  <si>
+    <t>Empowering Growers Through Precision Agriculture</t>
+  </si>
+  <si>
+    <t>At Grower Portal, we are committed to revolutionizing the agricultural landscape by integrating cutting-edge technology into everyday farming practices. Our platform is designed to provide farmers with real-time water sensor data, enabling precise irrigation management that conserves resources and enhances crop yields.</t>
+  </si>
+  <si>
+    <t>Innovative Water Sensing Technology</t>
+  </si>
+  <si>
+    <t>Our advanced water sensors are the heart of Grower Portal. They provide vital data on soil moisture levels, ensuring that crops receive the right amount of water at the right time. This not only leads to better crop health and increased production but also significantly reduces water waste.</t>
+  </si>
+  <si>
+    <t>Geolocation and CLU Data Integration</t>
+  </si>
+  <si>
+    <t>Grower Portal takes precision a step further by extracting geolocation data from captured images. This information is matched with Common Land Unit (CLU) data to give farmers insight into the soil levels and conditions of their fields. With this knowledge, they can tailor their cultivation strategies to the unique needs of their land.</t>
+  </si>
+  <si>
+    <t>Our Vision</t>
+  </si>
+  <si>
+    <t>Our vision is to create a sustainable future where technology and traditional farming techniques merge seamlessly. We strive to provide tools that support growers in making informed decisions that benefit their crops, their community, and the planet.</t>
+  </si>
+  <si>
+    <t>Join Us</t>
+  </si>
+  <si>
+    <t>Join the growing number of farmers who are leveraging Grower Portal to bring about a new era in agriculture. Sign up today to start optimizing your water usage, understanding your soil better, and taking your farming operations to the next level.</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>We aim to respond within 24 hours. Feel free to reach out to us with any inquiries, and we'll get back to you as soon as possible.</t>
+  </si>
+  <si>
+    <t>AboutPage</t>
+  </si>
+  <si>
+    <t>Phone number: Your Phone Number</t>
+  </si>
+  <si>
+    <t>Email: Your Email Address</t>
+  </si>
+  <si>
+    <t>Chat Us: Start Chat</t>
+  </si>
+  <si>
+    <t>contactUsText</t>
+  </si>
+  <si>
+    <t>Sensor Data</t>
+  </si>
+  <si>
+    <t>Sensor Data Metrics:</t>
+  </si>
+  <si>
+    <t>How to Fill Out Your Application - Grower Portal</t>
+  </si>
+  <si>
+    <t>Access the Application Form: Navigate to the "Add Application" section on the Grower Portal.</t>
+  </si>
+  <si>
+    <t>Enter Basic Information: Fill in basic details such as your Farm Number and Tract Number.</t>
+  </si>
+  <si>
+    <t>Provide Detailed Information: Enter specific details about your farm, including Commodity Type, Grower Field Name, and FSA Physical Location.</t>
+  </si>
+  <si>
+    <t>Upload Necessary Documents: Attach any required documents, such as proof of ownership or land use documentation, in the Document Upload section.</t>
+  </si>
+  <si>
+    <t>Review Your Application: Ensure all the information provided is accurate and complete.</t>
+  </si>
+  <si>
+    <t>Submit Your Application: Click the "Submit Application" button. You will receive a confirmation once your application has been successfully submitted.</t>
+  </si>
+  <si>
+    <t>Await Confirmation: After submission, your application will be reviewed, and you will be notified about the approval status via email or on the portal.</t>
+  </si>
+  <si>
+    <t>empoweringGrowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> empoweringGrowersMatter</t>
+  </si>
+  <si>
+    <t>InnovativeWater</t>
+  </si>
+  <si>
+    <t>InnovativeWaterDescription</t>
+  </si>
+  <si>
+    <t>Geolocation</t>
+  </si>
+  <si>
+    <t>GeolocationDescription</t>
+  </si>
+  <si>
+    <t>OurVision</t>
+  </si>
+  <si>
+    <t>OurVisionDescription</t>
+  </si>
+  <si>
+    <t>JoinUs</t>
+  </si>
+  <si>
+    <t>JoinUsDescription</t>
+  </si>
+  <si>
+    <t>EmailText</t>
+  </si>
+  <si>
+    <t>ChatUS</t>
+  </si>
+  <si>
+    <t>SelectDay</t>
+  </si>
+  <si>
+    <t>SelectMonth</t>
+  </si>
+  <si>
+    <t>SelectYear</t>
+  </si>
+  <si>
+    <t>GenerateYearlyReport</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Sensor Data Dashboard</t>
+  </si>
+  <si>
+    <t>sensorDataHeading</t>
+  </si>
+  <si>
+    <t>SensorData</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>DataMetrics</t>
+  </si>
+  <si>
+    <t>Location:</t>
+  </si>
+  <si>
+    <t>Field XYZ</t>
+  </si>
+  <si>
+    <t>UniqueId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique ID: </t>
+  </si>
+  <si>
+    <t>ABC123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth: </t>
+  </si>
+  <si>
+    <t>10 inches</t>
+  </si>
+  <si>
+    <t>HowToFillApplication</t>
+  </si>
+  <si>
+    <t>AccessApplicationForm</t>
+  </si>
+  <si>
+    <t>BasicInformation</t>
+  </si>
+  <si>
+    <t>ProvideInformation</t>
+  </si>
+  <si>
+    <t>UploadDocuments</t>
+  </si>
+  <si>
+    <t>ReviewApplication</t>
+  </si>
+  <si>
+    <t>SubmitApplication</t>
+  </si>
+  <si>
+    <t>AwaitConfirmation</t>
+  </si>
+  <si>
+    <t>UserInfo</t>
+  </si>
+  <si>
+    <t>User Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: </t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email: </t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address: </t>
+  </si>
+  <si>
+    <t>123 Main Street, City, Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Birth: </t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PhnNumber</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>CommodityCategory</t>
+  </si>
+  <si>
+    <t>CommodityType</t>
+  </si>
+  <si>
+    <t>ReportQty</t>
+  </si>
+  <si>
+    <t>TotalCropArea</t>
+  </si>
+  <si>
+    <t>ControllingMembers</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
     <t>Add Application</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>C:\Users\student\Downloads\IMG4.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +534,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +549,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,18 +557,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -206,9 +652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -352,7 +798,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -494,104 +940,13 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134FE337-A318-4D58-AA9E-82ADF24A4DC2}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
-        <v>123456</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B42994F-66BC-4FBE-88FE-C94E9F39418E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD92321-F882-43C8-9A06-E3EBC6296F24}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE5F33B-F2AF-4788-A261-FFCBE5970D85}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1635791A-FF89-42E2-B3B1-2F17D450BF1F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E80B40-8853-476C-8865-7FF88D92A6AB}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -599,16 +954,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -620,75 +975,241 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A11F753-7865-4548-8319-14079F023AED}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
+    <col min="8" max="8" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E852EAE-1A95-4083-A7AA-DDF445F3E15A}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="15">
+        <v>32874</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{44539752-50F9-4955-AC35-7A936A86D410}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E932BBDE-11B9-4BBA-B346-61E19FB2917C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.81640625" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>31048</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>12254107188</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -700,58 +1221,263 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09095ADD-B643-40D5-A9BA-00F6CC544227}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="24.7265625" customWidth="1"/>
-    <col min="7" max="7" width="42.81640625" customWidth="1"/>
-    <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="15" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="23" max="23" width="23.85546875" customWidth="1"/>
+    <col min="24" max="24" width="24.28515625" customWidth="1"/>
+    <col min="25" max="25" width="27.7109375" customWidth="1"/>
+    <col min="26" max="27" width="21.5703125" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" customWidth="1"/>
+    <col min="29" max="29" width="18.7109375" customWidth="1"/>
+    <col min="30" max="30" width="16.28515625" customWidth="1"/>
+    <col min="31" max="31" width="17.140625" customWidth="1"/>
+    <col min="32" max="32" width="16.28515625" customWidth="1"/>
+    <col min="33" max="33" width="18.7109375" customWidth="1"/>
+    <col min="34" max="34" width="17.140625" customWidth="1"/>
+    <col min="35" max="35" width="19.7109375" customWidth="1"/>
+    <col min="36" max="36" width="22" customWidth="1"/>
+    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" t="s">
+        <v>149</v>
+      </c>
+      <c r="S1" t="s">
+        <v>150</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2">
+        <v>11231</v>
+      </c>
+      <c r="K2">
+        <v>12345</v>
+      </c>
+      <c r="L2">
+        <v>45321</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
+      <c r="Z2">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH2">
+        <v>5</v>
+      </c>
+      <c r="AI2">
+        <v>4</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -760,27 +1486,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6A529A-12C7-4A88-AA6D-E79B6EE9D82F}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.08984375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B43E14-7BED-4064-B5DF-456D47E537AD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -789,21 +1552,104 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B43E14-7BED-4064-B5DF-456D47E537AD}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6CD3A6-8A40-40EE-B91C-B0130B802F3D}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="32" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="47.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="42.5703125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="5"/>
+    <col min="12" max="12" width="44.28515625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>26</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -812,35 +1658,110 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF55A2E-3904-49AF-AACE-448C6D91BACB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F6BF23-D30D-4EC8-9838-43A42DBC3C18}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5061BFD8-E966-4685-89C9-ECBF5793A895}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD92321-F882-43C8-9A06-E3EBC6296F24}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="E2">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -849,13 +1770,77 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4193AB3C-DF1D-4071-8732-6C1E84F5BD28}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1635791A-FF89-42E2-B3B1-2F17D450BF1F}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input/GrowerPortal.xlsx
+++ b/input/GrowerPortal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeBase\testing\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15bc9c2bc0134084/Documents/project/testing2/testing/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FF8D4E-F2A0-4D45-A25A-2FC43E1EDB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{B8FF8D4E-F2A0-4D45-A25A-2FC43E1EDB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11C4A350-5088-4FC6-B1DA-38A6262F49EC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{FF234655-D598-4AE8-8306-A46F6C3E0F22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{FF234655-D598-4AE8-8306-A46F6C3E0F22}"/>
   </bookViews>
   <sheets>
     <sheet name="forgetPassword" sheetId="2" r:id="rId1"/>
@@ -23,28 +23,20 @@
     <sheet name="report" sheetId="9" r:id="rId8"/>
     <sheet name="sensorData" sheetId="11" r:id="rId9"/>
     <sheet name="stepsToFollow" sheetId="16" r:id="rId10"/>
-    <sheet name="UserInformation" sheetId="17" r:id="rId11"/>
+    <sheet name="test" sheetId="17" r:id="rId11"/>
+    <sheet name="UserInformation" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="154">
   <si>
     <t>Pravalika</t>
   </si>
@@ -454,24 +446,15 @@
     <t xml:space="preserve">Name: </t>
   </si>
   <si>
-    <t>John Doe</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email: </t>
   </si>
   <si>
-    <t>john.doe@example.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phone Number: </t>
   </si>
   <si>
     <t xml:space="preserve">Address: </t>
   </si>
   <si>
-    <t>123 Main Street, City, Country</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date of Birth: </t>
   </si>
   <si>
@@ -512,6 +495,9 @@
   </si>
   <si>
     <t>Add Application</t>
+  </si>
+  <si>
+    <t>Steps to Follow</t>
   </si>
 </sst>
 </file>
@@ -577,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,49 +575,32 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -651,10 +620,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -692,7 +665,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -798,7 +771,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -940,7 +913,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -954,14 +927,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -980,23 +953,23 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1"/>
-    <col min="8" max="8" width="40.5703125" customWidth="1"/>
-    <col min="9" max="9" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="36.88671875" customWidth="1"/>
+    <col min="8" max="8" width="40.5546875" customWidth="1"/>
+    <col min="9" max="9" width="38.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1025,33 +998,36 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1060,83 +1036,83 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E852EAE-1A95-4083-A7AA-DDF445F3E15A}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G2" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4964FEFE-28CD-4934-81CF-37F7CF7AD716}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="15">
-        <v>32874</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{44539752-50F9-4955-AC35-7A936A86D410}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1149,18 +1125,18 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -1186,7 +1162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1227,46 +1203,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="42.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="42.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1"/>
+    <col min="14" max="14" width="21.5546875" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="21" customWidth="1"/>
-    <col min="22" max="22" width="26.7109375" customWidth="1"/>
-    <col min="23" max="23" width="23.85546875" customWidth="1"/>
-    <col min="24" max="24" width="24.28515625" customWidth="1"/>
-    <col min="25" max="25" width="27.7109375" customWidth="1"/>
-    <col min="26" max="27" width="21.5703125" customWidth="1"/>
-    <col min="28" max="28" width="20.42578125" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" customWidth="1"/>
-    <col min="30" max="30" width="16.28515625" customWidth="1"/>
-    <col min="31" max="31" width="17.140625" customWidth="1"/>
-    <col min="32" max="32" width="16.28515625" customWidth="1"/>
-    <col min="33" max="33" width="18.7109375" customWidth="1"/>
-    <col min="34" max="34" width="17.140625" customWidth="1"/>
-    <col min="35" max="35" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.6640625" customWidth="1"/>
+    <col min="23" max="23" width="23.88671875" customWidth="1"/>
+    <col min="24" max="24" width="24.33203125" customWidth="1"/>
+    <col min="25" max="25" width="27.6640625" customWidth="1"/>
+    <col min="26" max="27" width="21.5546875" customWidth="1"/>
+    <col min="28" max="28" width="20.44140625" customWidth="1"/>
+    <col min="29" max="29" width="18.6640625" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" customWidth="1"/>
+    <col min="31" max="31" width="17.109375" customWidth="1"/>
+    <col min="32" max="32" width="16.33203125" customWidth="1"/>
+    <col min="33" max="33" width="18.6640625" customWidth="1"/>
+    <col min="34" max="34" width="17.109375" customWidth="1"/>
+    <col min="35" max="35" width="19.6640625" customWidth="1"/>
     <col min="36" max="36" width="22" customWidth="1"/>
-    <col min="37" max="37" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="29.85546875" customWidth="1"/>
+    <col min="37" max="37" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1313,16 +1289,16 @@
         <v>32</v>
       </c>
       <c r="P1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" t="s">
-        <v>151</v>
-      </c>
       <c r="R1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="T1" t="s">
         <v>34</v>
@@ -1346,7 +1322,7 @@
         <v>42</v>
       </c>
       <c r="AA1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AB1" t="s">
         <v>43</v>
@@ -1382,12 +1358,12 @@
         <v>57</v>
       </c>
       <c r="AM1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -1426,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
@@ -1494,13 +1470,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1484,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -1524,13 +1500,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1555,100 +1531,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6CD3A6-8A40-40EE-B91C-B0130B802F3D}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="32" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="32.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="47.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="42.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="5"/>
-    <col min="12" max="12" width="44.28515625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="3" max="3" width="20.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="42.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="5"/>
+    <col min="12" max="12" width="44.33203125" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1661,53 +1637,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F6BF23-D30D-4EC8-9838-43A42DBC3C18}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1724,16 +1703,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1750,7 +1729,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>19</v>
       </c>
@@ -1777,16 +1756,16 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1788,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>112</v>
       </c>
@@ -1829,7 +1808,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>119</v>
       </c>
